--- a/3_output/costs_women_general.xlsx
+++ b/3_output/costs_women_general.xlsx
@@ -449,10 +449,10 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>1030860.088347926</v>
+        <v>1030860.092400195</v>
       </c>
       <c r="C2" t="n">
-        <v>1899223.244240217</v>
+        <v>1899223.251178688</v>
       </c>
     </row>
     <row r="3">
@@ -460,10 +460,10 @@
         <v>45</v>
       </c>
       <c r="B3" t="n">
-        <v>871857.6106765671</v>
+        <v>871857.6135743852</v>
       </c>
       <c r="C3" t="n">
-        <v>1600503.826222285</v>
+        <v>1600503.832087803</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +471,10 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>733592.2856778456</v>
+        <v>733592.2886656905</v>
       </c>
       <c r="C4" t="n">
-        <v>1348348.939657056</v>
+        <v>1348348.944629188</v>
       </c>
     </row>
     <row r="5">
@@ -482,10 +482,10 @@
         <v>55</v>
       </c>
       <c r="B5" t="n">
-        <v>621786.8537495122</v>
+        <v>621786.8557564914</v>
       </c>
       <c r="C5" t="n">
-        <v>1134736.631859689</v>
+        <v>1134736.636093965</v>
       </c>
     </row>
     <row r="6">
@@ -493,10 +493,10 @@
         <v>60</v>
       </c>
       <c r="B6" t="n">
-        <v>522838.9076493061</v>
+        <v>522838.9099195441</v>
       </c>
       <c r="C6" t="n">
-        <v>953169.6666927109</v>
+        <v>953169.6703265912</v>
       </c>
     </row>
     <row r="7">
@@ -504,10 +504,10 @@
         <v>65</v>
       </c>
       <c r="B7" t="n">
-        <v>443925.2569819586</v>
+        <v>443925.258388679</v>
       </c>
       <c r="C7" t="n">
-        <v>795892.5144217478</v>
+        <v>795892.5175780327</v>
       </c>
     </row>
     <row r="8">
@@ -515,10 +515,10 @@
         <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>369315.8790958629</v>
+        <v>369315.8809316644</v>
       </c>
       <c r="C8" t="n">
-        <v>653378.0271730328</v>
+        <v>653378.0299615301</v>
       </c>
     </row>
     <row r="9">
@@ -526,10 +526,10 @@
         <v>75</v>
       </c>
       <c r="B9" t="n">
-        <v>306750.0038116957</v>
+        <v>306750.0048404826</v>
       </c>
       <c r="C9" t="n">
-        <v>507020.5436063411</v>
+        <v>507020.5461417008</v>
       </c>
     </row>
     <row r="10">
@@ -537,10 +537,10 @@
         <v>80</v>
       </c>
       <c r="B10" t="n">
-        <v>227124.6804900081</v>
+        <v>227124.6821985965</v>
       </c>
       <c r="C10" t="n">
-        <v>338624.617685252</v>
+        <v>338624.6201061982</v>
       </c>
     </row>
   </sheetData>
@@ -575,10 +575,10 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>2321220.822512245</v>
+        <v>2321220.835418865</v>
       </c>
       <c r="C2" t="n">
-        <v>4122950.411890888</v>
+        <v>4122950.434313795</v>
       </c>
     </row>
     <row r="3">
@@ -586,10 +586,10 @@
         <v>45</v>
       </c>
       <c r="B3" t="n">
-        <v>1808980.084221561</v>
+        <v>1808980.093776146</v>
       </c>
       <c r="C3" t="n">
-        <v>3207478.851371089</v>
+        <v>3207478.868843688</v>
       </c>
     </row>
     <row r="4">
@@ -597,10 +597,10 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>1407991.814439747</v>
+        <v>1407991.82241151</v>
       </c>
       <c r="C4" t="n">
-        <v>2497492.26924407</v>
+        <v>2497492.282896718</v>
       </c>
     </row>
     <row r="5">
@@ -608,10 +608,10 @@
         <v>55</v>
       </c>
       <c r="B5" t="n">
-        <v>1101959.703187452</v>
+        <v>1101959.708933302</v>
       </c>
       <c r="C5" t="n">
-        <v>1946347.242032047</v>
+        <v>1946347.252749126</v>
       </c>
     </row>
     <row r="6">
@@ -619,10 +619,10 @@
         <v>60</v>
       </c>
       <c r="B6" t="n">
-        <v>860666.4380842545</v>
+        <v>860666.4431513245</v>
       </c>
       <c r="C6" t="n">
-        <v>1518016.674545183</v>
+        <v>1518016.683023133</v>
       </c>
     </row>
     <row r="7">
@@ -630,10 +630,10 @@
         <v>65</v>
       </c>
       <c r="B7" t="n">
-        <v>678116.4639421809</v>
+        <v>678116.4674608132</v>
       </c>
       <c r="C7" t="n">
-        <v>1181788.960631509</v>
+        <v>1181788.96741916</v>
       </c>
     </row>
     <row r="8">
@@ -641,10 +641,10 @@
         <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>528498.7366276481</v>
+        <v>528498.7400577993</v>
       </c>
       <c r="C8" t="n">
-        <v>910168.994448247</v>
+        <v>910168.9999758468</v>
       </c>
     </row>
     <row r="9">
@@ -652,10 +652,10 @@
         <v>75</v>
       </c>
       <c r="B9" t="n">
-        <v>412154.0086695175</v>
+        <v>412154.0109344875</v>
       </c>
       <c r="C9" t="n">
-        <v>671817.7147060127</v>
+        <v>671817.7193386576</v>
       </c>
     </row>
     <row r="10">
@@ -663,10 +663,10 @@
         <v>80</v>
       </c>
       <c r="B10" t="n">
-        <v>294481.8360646738</v>
+        <v>294481.8387498289</v>
       </c>
       <c r="C10" t="n">
-        <v>438615.7826252974</v>
+        <v>438615.7867028316</v>
       </c>
     </row>
   </sheetData>
@@ -701,10 +701,10 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>4121871.913252132</v>
+        <v>4121871.942805005</v>
       </c>
       <c r="C2" t="n">
-        <v>7144600.672758359</v>
+        <v>7144600.723498985</v>
       </c>
     </row>
     <row r="3">
@@ -712,10 +712,10 @@
         <v>45</v>
       </c>
       <c r="B3" t="n">
-        <v>3034892.782016335</v>
+        <v>3034892.803289361</v>
       </c>
       <c r="C3" t="n">
-        <v>5254953.663060645</v>
+        <v>5254953.700419369</v>
       </c>
     </row>
     <row r="4">
@@ -723,10 +723,10 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>2235130.714086695</v>
+        <v>2235130.730281583</v>
       </c>
       <c r="C4" t="n">
-        <v>3870715.910465824</v>
+        <v>3870715.938047582</v>
       </c>
     </row>
     <row r="5">
@@ -734,10 +734,10 @@
         <v>55</v>
       </c>
       <c r="B5" t="n">
-        <v>1654289.330116384</v>
+        <v>1654289.34163347</v>
       </c>
       <c r="C5" t="n">
-        <v>2856384.02111308</v>
+        <v>2856384.041570558</v>
       </c>
     </row>
     <row r="6">
@@ -745,10 +745,10 @@
         <v>60</v>
       </c>
       <c r="B6" t="n">
-        <v>1225269.806036934</v>
+        <v>1225269.815149687</v>
       </c>
       <c r="C6" t="n">
-        <v>2112687.3681325</v>
+        <v>2112687.38342354</v>
       </c>
     </row>
     <row r="7">
@@ -756,10 +756,10 @@
         <v>65</v>
       </c>
       <c r="B7" t="n">
-        <v>915451.8031183584</v>
+        <v>915451.8094918213</v>
       </c>
       <c r="C7" t="n">
-        <v>1563628.83345349</v>
+        <v>1563628.845020904</v>
       </c>
     </row>
     <row r="8">
@@ -767,10 +767,10 @@
         <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>680125.9625944479</v>
+        <v>680125.9680444119</v>
       </c>
       <c r="C8" t="n">
-        <v>1149332.153191034</v>
+        <v>1149332.162091729</v>
       </c>
     </row>
     <row r="9">
@@ -778,10 +778,10 @@
         <v>75</v>
       </c>
       <c r="B9" t="n">
-        <v>506681.3784526952</v>
+        <v>506681.3821790328</v>
       </c>
       <c r="C9" t="n">
-        <v>816607.1639292263</v>
+        <v>816607.1709775671</v>
       </c>
     </row>
     <row r="10">
@@ -789,10 +789,10 @@
         <v>80</v>
       </c>
       <c r="B10" t="n">
-        <v>351483.5236083692</v>
+        <v>351483.5273758178</v>
       </c>
       <c r="C10" t="n">
-        <v>521790.4873980926</v>
+        <v>521790.4932598256</v>
       </c>
     </row>
   </sheetData>
@@ -827,10 +827,10 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>6651912.628737129</v>
+        <v>6651912.687555861</v>
       </c>
       <c r="C2" t="n">
-        <v>11306960.85359357</v>
+        <v>11306960.9531036</v>
       </c>
     </row>
     <row r="3">
@@ -838,10 +838,10 @@
         <v>45</v>
       </c>
       <c r="B3" t="n">
-        <v>4673781.004373856</v>
+        <v>4673781.045228925</v>
       </c>
       <c r="C3" t="n">
-        <v>7939038.930400098</v>
+        <v>7939039.000318226</v>
       </c>
     </row>
     <row r="4">
@@ -849,10 +849,10 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>3287422.584755051</v>
+        <v>3287422.614015396</v>
       </c>
       <c r="C4" t="n">
-        <v>5584335.523150558</v>
+        <v>5584335.572411926</v>
       </c>
     </row>
     <row r="5">
@@ -860,10 +860,10 @@
         <v>55</v>
       </c>
       <c r="B5" t="n">
-        <v>2323179.846947682</v>
+        <v>2323179.86717743</v>
       </c>
       <c r="C5" t="n">
-        <v>3937800.541309651</v>
+        <v>3937800.576177352</v>
       </c>
     </row>
     <row r="6">
@@ -871,10 +871,10 @@
         <v>60</v>
       </c>
       <c r="B6" t="n">
-        <v>1645748.874711191</v>
+        <v>1645748.88963135</v>
       </c>
       <c r="C6" t="n">
-        <v>2785990.769895733</v>
+        <v>2785990.794766833</v>
       </c>
     </row>
     <row r="7">
@@ -882,10 +882,10 @@
         <v>65</v>
       </c>
       <c r="B7" t="n">
-        <v>1176263.062084149</v>
+        <v>1176263.072349447</v>
       </c>
       <c r="C7" t="n">
-        <v>1975876.655229575</v>
+        <v>1975876.673184392</v>
       </c>
     </row>
     <row r="8">
@@ -893,10 +893,10 @@
         <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>839026.9005065695</v>
+        <v>839026.9085751087</v>
       </c>
       <c r="C8" t="n">
-        <v>1395829.9740137</v>
+        <v>1395829.987197947</v>
       </c>
     </row>
     <row r="9">
@@ -904,10 +904,10 @@
         <v>75</v>
       </c>
       <c r="B9" t="n">
-        <v>601274.5664173316</v>
+        <v>601274.5719416264</v>
       </c>
       <c r="C9" t="n">
-        <v>959313.9182030337</v>
+        <v>959313.9281663762</v>
       </c>
     </row>
     <row r="10">
@@ -915,10 +915,10 @@
         <v>80</v>
       </c>
       <c r="B10" t="n">
-        <v>406048.6053543435</v>
+        <v>406048.6103886203</v>
       </c>
       <c r="C10" t="n">
-        <v>600401.4619010377</v>
+        <v>600401.4698083873</v>
       </c>
     </row>
   </sheetData>
